--- a/pay.xlsx
+++ b/pay.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/git/sendMail/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2080" windowWidth="19860" windowHeight="10580"/>
+    <workbookView xWindow="3225" yWindow="2085" windowWidth="19860" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="201508工资条" sheetId="3" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'201508工资条'!$A$2:$R$3</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="124519" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>姓名</t>
   </si>
@@ -91,50 +86,41 @@
     <t>应发合计</t>
   </si>
   <si>
+    <t>34262607</t>
+  </si>
+  <si>
     <t>741187338@qq.com</t>
-  </si>
-  <si>
-    <t>34262607</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>34262604</t>
-  </si>
-  <si>
-    <t>573351663@qq.com</t>
-  </si>
-  <si>
-    <t>李思</t>
-  </si>
-  <si>
-    <t>34262605</t>
-  </si>
-  <si>
-    <t>哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,6 +171,14 @@
       <name val="Lantinghei SC Heavy"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -249,13 +243,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,44 +261,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_Sheet1 6" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -600,38 +594,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="7"/>
-    <col min="2" max="2" width="7.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="7"/>
+    <col min="2" max="2" width="7.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="7"/>
-    <col min="11" max="11" width="10.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="7"/>
-    <col min="13" max="14" width="8.83203125" style="9"/>
-    <col min="15" max="15" width="9.1640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="7" customWidth="1"/>
+    <col min="9" max="10" width="8.875" style="7"/>
+    <col min="11" max="11" width="10.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7"/>
+    <col min="13" max="14" width="8.875" style="9"/>
+    <col min="15" max="15" width="9.125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="7" customWidth="1"/>
     <col min="18" max="18" width="10" style="7" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="7"/>
+    <col min="19" max="19" width="10.125" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="16.5" customHeight="1">
       <c r="A1" s="7">
         <v>1</v>
       </c>
@@ -690,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -749,18 +743,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>810002</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="14">
         <v>168</v>
@@ -810,77 +804,79 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>810002</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1">
-        <v>810003</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14">
+        <v>168</v>
+      </c>
+      <c r="F4" s="14">
+        <v>168</v>
+      </c>
+      <c r="G4" s="14">
+        <v>168</v>
+      </c>
+      <c r="H4" s="14">
+        <v>168</v>
+      </c>
+      <c r="I4" s="14">
+        <v>168</v>
+      </c>
+      <c r="J4" s="14">
+        <v>168</v>
+      </c>
+      <c r="K4" s="14">
+        <v>168</v>
+      </c>
+      <c r="L4" s="14">
+        <v>168</v>
+      </c>
+      <c r="M4" s="14">
+        <v>168</v>
+      </c>
+      <c r="N4" s="14">
+        <v>168</v>
+      </c>
+      <c r="O4" s="14">
+        <v>168</v>
+      </c>
+      <c r="P4" s="14">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>168</v>
+      </c>
+      <c r="R4" s="14">
+        <v>168</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>810002</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="14">
-        <v>168</v>
-      </c>
-      <c r="F4" s="14">
-        <v>168</v>
-      </c>
-      <c r="G4" s="14">
-        <v>168</v>
-      </c>
-      <c r="H4" s="14">
-        <v>168</v>
-      </c>
-      <c r="I4" s="14">
-        <v>168</v>
-      </c>
-      <c r="J4" s="14">
-        <v>168</v>
-      </c>
-      <c r="K4" s="14">
-        <v>168</v>
-      </c>
-      <c r="L4" s="14">
-        <v>168</v>
-      </c>
-      <c r="M4" s="14">
-        <v>168</v>
-      </c>
-      <c r="N4" s="14">
-        <v>168</v>
-      </c>
-      <c r="O4" s="14">
-        <v>168</v>
-      </c>
-      <c r="P4" s="14">
-        <v>168</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>168</v>
-      </c>
-      <c r="R4" s="14">
-        <v>168</v>
-      </c>
-      <c r="S4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4554566</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>26</v>
+      <c r="D5" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="14">
         <v>168</v>
@@ -924,17 +920,19 @@
       <c r="R5" s="14">
         <v>168</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="S5" s="10">
+        <v>1</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:R3"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId2" display="741187338@qq.com"/>
+    <hyperlink ref="C5" r:id="rId3" display="741187338@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
